--- a/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
+++ b/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\Github\myDAQ-Expansion-Board\KiCAD files\myDAQExpansionBoard\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\GitHub\myDAQ-Expansion-Board\KiCAD files\myDAQExpansionBoard\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1BEDD6-F7FB-4C3B-AA8B-7F16A50EAC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A33DC22-9678-472C-A52F-706871AC8B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="myDAQExpansionBoard" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>C_Radial_D10.0mm_H16.0mm_P5.00mm</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Plastični odstojnik M3, duljina 5mm</t>
+  </si>
+  <si>
+    <t>letva za 7segm display</t>
+  </si>
+  <si>
+    <t>LDR, neki koji ima mat. Fju</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +554,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -825,19 +837,15 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +853,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1033,8 +1045,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Neutral">
-  <autoFilter ref="A1:E37" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Neutral">
+  <autoFilter ref="A1:E39" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{97E67440-64E5-475A-862A-DE53CD4198B3}" name="#" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2A18092F-2E40-4862-BED9-469CB0647BD6}" name="Naziv" dataDxfId="3"/>
@@ -1343,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,24 +1376,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1393,10 +1405,10 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1408,10 +1420,10 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1423,10 +1435,10 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1438,10 +1450,10 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1453,13 +1465,13 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="3"/>
+      <c r="H6" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1471,13 +1483,13 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="H7" s="17" t="s">
+      <c r="E7" s="3"/>
+      <c r="H7" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1489,11 +1501,11 @@
       <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="3"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1505,11 +1517,11 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="3"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1521,11 +1533,11 @@
       <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="H10" s="17"/>
+      <c r="E10" s="3"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1537,13 +1549,13 @@
       <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1555,12 +1567,12 @@
       <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1572,10 +1584,10 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1587,10 +1599,10 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1602,10 +1614,10 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1617,10 +1629,10 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1632,10 +1644,10 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1647,10 +1659,10 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1662,10 +1674,10 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1677,10 +1689,10 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1692,10 +1704,10 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1707,10 +1719,10 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1722,10 +1734,10 @@
       <c r="D23" s="1">
         <v>8</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1737,10 +1749,10 @@
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1750,10 +1762,10 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1763,10 +1775,10 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1778,10 +1790,10 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1791,12 +1803,12 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1806,12 +1818,12 @@
       <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1821,10 +1833,10 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1834,10 +1846,10 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1847,10 +1859,10 @@
       <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1862,59 +1874,90 @@
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5"/>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15">
+        <v>1</v>
+      </c>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15">
         <v>4</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
+++ b/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\GitHub\myDAQ-Expansion-Board\KiCAD files\myDAQExpansionBoard\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A33DC22-9678-472C-A52F-706871AC8B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39569A8-E949-4C1A-A0F9-CD3C55870BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>C_Radial_D10.0mm_H16.0mm_P5.00mm</t>
   </si>
@@ -209,6 +209,24 @@
   </si>
   <si>
     <t>LDR, neki koji ima mat. Fju</t>
+  </si>
+  <si>
+    <t>plastična m3 matica</t>
+  </si>
+  <si>
+    <t>gumene nožice</t>
+  </si>
+  <si>
+    <t>vijci bez glave za spojnicu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 vijci i matice </t>
+  </si>
+  <si>
+    <t>enkoderi 360 impulsa</t>
+  </si>
+  <si>
+    <t>navoji za 3d print</t>
   </si>
 </sst>
 </file>
@@ -834,7 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -850,57 +868,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bilješka" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Dobro" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Isticanje1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Isticanje2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Isticanje3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Isticanje4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Isticanje5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Isticanje6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Izlaz" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Izračun" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Loše" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Naslov" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Naslov 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Naslov 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Naslov 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Naslov 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutralno" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Povezana ćelija" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Provjera ćelije" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Tekst objašnjenja" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Tekst upozorenja" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Ukupni zbroj" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Unos" xfId="9" builtinId="20" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1045,8 +1062,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Neutral">
-  <autoFilter ref="A1:E39" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E45" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{97E67440-64E5-475A-862A-DE53CD4198B3}" name="#" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2A18092F-2E40-4862-BED9-469CB0647BD6}" name="Naziv" dataDxfId="3"/>
@@ -1059,7 +1076,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1355,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1502,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1518,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1534,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1903,61 +1920,120 @@
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15">
-        <v>1</v>
-      </c>
-      <c r="E36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14">
         <v>4</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15">
-        <v>1</v>
-      </c>
-      <c r="E38" s="16"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
+++ b/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\GitHub\myDAQ-Expansion-Board\KiCAD files\myDAQExpansionBoard\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39569A8-E949-4C1A-A0F9-CD3C55870BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019AA80-8C74-4376-ADAA-A37C57B6ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>C_Radial_D10.0mm_H16.0mm_P5.00mm</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>navoji za 3d print</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>kupljeno</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +583,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +864,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -874,52 +886,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Isticanje1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Isticanje2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Isticanje3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Isticanje4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Isticanje5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Isticanje6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Isticanje1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Isticanje2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Isticanje3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Isticanje4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Isticanje5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Isticanje6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Isticanje1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Isticanje2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Isticanje3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Isticanje4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Isticanje5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Isticanje6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bilješka" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Dobro" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Isticanje1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Isticanje2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Isticanje3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Isticanje4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Isticanje5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Isticanje6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Izlaz" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Izračun" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Loše" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Naslov" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Naslov 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Naslov 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Naslov 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Naslov 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutralno" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Povezana ćelija" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Provjera ćelije" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Tekst objašnjenja" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Tekst upozorenja" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Ukupni zbroj" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Unos" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1062,21 +1099,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E45" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{97E67440-64E5-475A-862A-DE53CD4198B3}" name="#" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2A18092F-2E40-4862-BED9-469CB0647BD6}" name="Naziv" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{71BCE944-C673-40E8-A62D-1576F5D0AEBB}" name="Kućište" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FC793558-D69D-4416-AA9A-A219877FD2A2}" name="Količina" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0912EF61-DC9F-4416-B786-74DDF1505FBD}" name="Digikey part number" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F45" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{97E67440-64E5-475A-862A-DE53CD4198B3}" name="#" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2A18092F-2E40-4862-BED9-469CB0647BD6}" name="Naziv" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{71BCE944-C673-40E8-A62D-1576F5D0AEBB}" name="Kućište" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FC793558-D69D-4416-AA9A-A219877FD2A2}" name="Količina" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0912EF61-DC9F-4416-B786-74DDF1505FBD}" name="Digikey part number" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{6B68B5C3-E4FD-4AF7-B67D-8A0C8381FF9E}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1375,7 +1413,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,6 +1446,9 @@
       <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="F1" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1423,6 +1464,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1438,6 +1480,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1453,6 +1496,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1468,6 +1512,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1483,6 +1528,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
       <c r="H6" s="12" t="s">
         <v>58</v>
       </c>
@@ -1501,6 +1547,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
       <c r="H7" s="16" t="s">
         <v>59</v>
       </c>
@@ -1519,6 +1566,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1535,6 +1583,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1551,6 +1600,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1569,6 +1619,7 @@
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F11" s="1"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1587,6 +1638,7 @@
       <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1602,6 +1654,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1617,6 +1670,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1632,6 +1686,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1647,8 +1702,9 @@
         <v>1</v>
       </c>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1662,8 +1718,9 @@
         <v>1</v>
       </c>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1677,8 +1734,9 @@
         <v>1</v>
       </c>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1692,8 +1750,9 @@
         <v>1</v>
       </c>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1707,8 +1766,9 @@
         <v>1</v>
       </c>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1722,8 +1782,9 @@
         <v>1</v>
       </c>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1737,8 +1798,9 @@
         <v>1</v>
       </c>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1752,8 +1814,9 @@
         <v>8</v>
       </c>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1767,8 +1830,9 @@
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1780,8 +1844,9 @@
         <v>1</v>
       </c>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1793,8 +1858,9 @@
         <v>1</v>
       </c>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1808,8 +1874,9 @@
         <v>1</v>
       </c>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1823,8 +1890,9 @@
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1838,8 +1906,9 @@
       <c r="E29" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1851,8 +1920,9 @@
         <v>1</v>
       </c>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1864,8 +1934,9 @@
         <v>1</v>
       </c>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1877,8 +1948,9 @@
         <v>2</v>
       </c>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1892,8 +1964,9 @@
         <v>1</v>
       </c>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1905,8 +1978,9 @@
         <v>1</v>
       </c>
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1918,69 +1992,80 @@
         <v>1</v>
       </c>
       <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>37</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>38</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>39</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14">
-        <v>1</v>
-      </c>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14">
         <v>4</v>
       </c>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>37</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14">
-        <v>1</v>
-      </c>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>38</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>39</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
       <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -1990,8 +2075,10 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -2001,8 +2088,10 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -2012,8 +2101,10 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2023,8 +2114,10 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -2034,10 +2127,13 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="15"/>
+      <c r="F45" s="9"/>
+      <c r="H45" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H38:H45"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
+++ b/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\GitHub\myDAQ-Expansion-Board\KiCAD files\myDAQExpansionBoard\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019AA80-8C74-4376-ADAA-A37C57B6ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE85A3-8314-4077-B11A-423E9CF89243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>C_Radial_D10.0mm_H16.0mm_P5.00mm</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>kupljeno</t>
+  </si>
+  <si>
+    <t>Otpornik 1k</t>
   </si>
 </sst>
 </file>
@@ -883,13 +886,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1099,8 +1102,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F45" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:F46" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F46" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{97E67440-64E5-475A-862A-DE53CD4198B3}" name="#" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2A18092F-2E40-4862-BED9-469CB0647BD6}" name="Naziv" dataDxfId="4"/>
@@ -1410,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1449,7 @@
       <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1464,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="20"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1548,7 +1551,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="20" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1567,7 +1570,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1584,7 +1587,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1601,7 +1604,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1995,29 +1998,29 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>37</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18">
-        <v>1</v>
-      </c>
-      <c r="E36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="18"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>38</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2129,6 +2132,22 @@
       <c r="E45" s="15"/>
       <c r="F45" s="9"/>
       <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
+++ b/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\GitHub\myDAQ-Expansion-Board\KiCAD files\myDAQExpansionBoard\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE85A3-8314-4077-B11A-423E9CF89243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038EFEF4-0A22-4C1D-9FA6-1D83425ECEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="myDAQExpansionBoard" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>C_Radial_D10.0mm_H16.0mm_P5.00mm</t>
   </si>
@@ -160,12 +160,6 @@
     <t>Otpornik 6k8</t>
   </si>
   <si>
-    <t>mouser: 490-MSS102559-14A-D</t>
-  </si>
-  <si>
-    <t>MSS-102559-14A-D</t>
-  </si>
-  <si>
     <t>B3F-4000</t>
   </si>
   <si>
@@ -236,6 +230,9 @@
   </si>
   <si>
     <t>Otpornik 1k</t>
+  </si>
+  <si>
+    <t>500SSP1S1M2QEA</t>
   </si>
 </sst>
 </file>
@@ -898,48 +895,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Isticanje6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Isticanje6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Isticanje6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bilješka" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Dobro" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Isticanje1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Isticanje2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Isticanje3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Isticanje4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Isticanje5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Isticanje6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Izlaz" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Izračun" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Loše" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Naslov" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Naslov 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Naslov 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Naslov 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Naslov 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutralno" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Povezana ćelija" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Provjera ćelije" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Tekst objašnjenja" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Tekst upozorenja" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Ukupni zbroj" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Unos" xfId="9" builtinId="20" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1117,7 +1114,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1416,7 +1413,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,7 +1530,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="H6" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,7 +1549,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
       <c r="H7" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1884,15 +1881,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,14 +1895,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -1916,7 +1911,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -1930,7 +1925,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
@@ -1944,7 +1939,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
@@ -1958,10 +1953,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1974,7 +1969,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
@@ -1988,7 +1983,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9">
@@ -2002,7 +1997,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17">
@@ -2016,7 +2011,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -2028,14 +2023,14 @@
         <v>39</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="1"/>
       <c r="H38" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,7 +2038,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14">
@@ -2058,7 +2053,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14">
@@ -2073,7 +2068,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -2086,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -2099,7 +2094,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -2112,7 +2107,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -2125,7 +2120,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -2138,7 +2133,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>18</v>

--- a/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
+++ b/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\GitHub\myDAQ-Expansion-Board\KiCAD files\myDAQExpansionBoard\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038EFEF4-0A22-4C1D-9FA6-1D83425ECEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C99168D-90C3-4DCA-8D52-21A2E77A336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="myDAQExpansionBoard" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>letva za 7segm display</t>
   </si>
   <si>
-    <t>LDR, neki koji ima mat. Fju</t>
-  </si>
-  <si>
     <t>plastična m3 matica</t>
   </si>
   <si>
@@ -232,7 +229,10 @@
     <t>Otpornik 1k</t>
   </si>
   <si>
-    <t>500SSP1S1M2QEA</t>
+    <t>EG1271A</t>
+  </si>
+  <si>
+    <t>LDR, neki koji ima mat. Funkciju</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -2011,7 +2011,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -2023,14 +2023,14 @@
         <v>39</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="1"/>
       <c r="H38" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -2081,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -2094,7 +2094,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -2107,7 +2107,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -2120,7 +2120,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -2133,7 +2133,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>18</v>

--- a/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
+++ b/KiCAD files/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\GitHub\myDAQ-Expansion-Board\KiCAD files\myDAQExpansionBoard\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C99168D-90C3-4DCA-8D52-21A2E77A336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C70F2EC-0D56-4AC0-B46F-EF808C5B16A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>C_Radial_D10.0mm_H16.0mm_P5.00mm</t>
   </si>
   <si>
-    <t>L298N</t>
-  </si>
-  <si>
     <t>DIP-16_W7.62mm</t>
   </si>
   <si>
@@ -55,51 +52,21 @@
     <t>Količina</t>
   </si>
   <si>
-    <t>LED, žuta</t>
-  </si>
-  <si>
     <t>5mm THD</t>
   </si>
   <si>
-    <t>LED, crvena</t>
-  </si>
-  <si>
-    <t>LED, zelena</t>
-  </si>
-  <si>
-    <t>LED, plava</t>
-  </si>
-  <si>
     <t>1206 SMD</t>
   </si>
   <si>
-    <t>Otpornik 4k7</t>
-  </si>
-  <si>
     <t>0603 SMD</t>
   </si>
   <si>
-    <t>Otpornik 10k</t>
-  </si>
-  <si>
-    <t>Otpornik 2k</t>
-  </si>
-  <si>
-    <t>Digikey part number</t>
-  </si>
-  <si>
     <t>1849-09200-71-BDGB00-ND</t>
   </si>
   <si>
     <t>09200-71-BDGB00</t>
   </si>
   <si>
-    <t>jumper, crni</t>
-  </si>
-  <si>
-    <t>jumper, crni, kraći</t>
-  </si>
-  <si>
     <t>STC02SYAN</t>
   </si>
   <si>
@@ -112,45 +79,12 @@
     <t>0805 SMD</t>
   </si>
   <si>
-    <t>Kondenzator 1uF, X7R, 50V</t>
-  </si>
-  <si>
-    <t>Kondenzator 100nF, X7R, 50V</t>
-  </si>
-  <si>
     <t>PTV09A-4225F-B103</t>
   </si>
   <si>
-    <t>Potenciometar 10k</t>
-  </si>
-  <si>
-    <t>Otpornik 619R</t>
-  </si>
-  <si>
-    <t>Fotootpornik</t>
-  </si>
-  <si>
-    <t>LDR_5.1x4.3mm_P3.4mm</t>
-  </si>
-  <si>
-    <t>Podnožje profi</t>
-  </si>
-  <si>
     <t>ACS712ELCTR-05B</t>
   </si>
   <si>
-    <t>1n4007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMA </t>
-  </si>
-  <si>
-    <t>Kondenzator 1nF, X7R, 50V</t>
-  </si>
-  <si>
-    <t>Multiwatt</t>
-  </si>
-  <si>
     <t>Buksna 4mm crvena PCB Deltron 571-0500</t>
   </si>
   <si>
@@ -190,12 +124,6 @@
     <t>hladnjak</t>
   </si>
   <si>
-    <t>Bilješke:</t>
-  </si>
-  <si>
-    <t>Pronaći hladnjak ILI kupiti 20x modula u e-radionici</t>
-  </si>
-  <si>
     <t>Plastični odstojnik M3, duljina 5mm</t>
   </si>
   <si>
@@ -220,26 +148,83 @@
     <t>navoji za 3d print</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>kupljeno</t>
   </si>
   <si>
-    <t>Otpornik 1k</t>
-  </si>
-  <si>
     <t>EG1271A</t>
   </si>
   <si>
     <t>LDR, neki koji ima mat. Funkciju</t>
+  </si>
+  <si>
+    <t>LED, crvena, 5mm THD</t>
+  </si>
+  <si>
+    <t>LED, žuta, 5mm THD</t>
+  </si>
+  <si>
+    <t>LED, zelena, 5mm THD</t>
+  </si>
+  <si>
+    <t>LED, crvena, 1206 SMD</t>
+  </si>
+  <si>
+    <t>LED, plava, 5mm THD</t>
+  </si>
+  <si>
+    <t>Otpornik 4k7, 0603 SMD</t>
+  </si>
+  <si>
+    <t>Otpornik 10k, 0603 SMD</t>
+  </si>
+  <si>
+    <t>399-6657-1-ND</t>
+  </si>
+  <si>
+    <t>Otpornik 2k, 0603 SMD</t>
+  </si>
+  <si>
+    <t>jumper, crni, 09200-71-BDGB00</t>
+  </si>
+  <si>
+    <t>jumper, crni, kraći, STC02SYAN</t>
+  </si>
+  <si>
+    <t>Kondenzator 1uF, X7R, 50V, 0805 SMD</t>
+  </si>
+  <si>
+    <t>Kondenzator 1nF, X7R, 50V, 0603 SMD</t>
+  </si>
+  <si>
+    <t>Kondenzator 100nF, X7R, 50V, 0603 SMD</t>
+  </si>
+  <si>
+    <t>Potenciometar 10k, PTV09A-4225F-B103</t>
+  </si>
+  <si>
+    <t>PTV09A-4225F-B103-ND</t>
+  </si>
+  <si>
+    <t>Otpornik 619R, 0603 SMD</t>
+  </si>
+  <si>
+    <t>Otpornik 1k, 0603 SMD</t>
+  </si>
+  <si>
+    <t>digikey/TME</t>
+  </si>
+  <si>
+    <t>TME</t>
+  </si>
+  <si>
+    <t>Podnožje profi, DIP-16_W7.62mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +384,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -820,7 +814,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -863,8 +857,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -879,22 +874,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Isticanje1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Isticanje2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Isticanje3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -915,6 +906,7 @@
     <cellStyle name="60% - Isticanje6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Bilješka" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Dobro" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hiperveza" xfId="42" builtinId="8"/>
     <cellStyle name="Isticanje1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Isticanje2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Isticanje3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -938,25 +930,7 @@
     <cellStyle name="Ukupni zbroj" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Unos" xfId="9" builtinId="20" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1099,15 +1073,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:F46" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F46" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{97E67440-64E5-475A-862A-DE53CD4198B3}" name="#" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2A18092F-2E40-4862-BED9-469CB0647BD6}" name="Naziv" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{71BCE944-C673-40E8-A62D-1576F5D0AEBB}" name="Kućište" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FC793558-D69D-4416-AA9A-A219877FD2A2}" name="Količina" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0912EF61-DC9F-4416-B786-74DDF1505FBD}" name="Digikey part number" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{6B68B5C3-E4FD-4AF7-B67D-8A0C8381FF9E}" name="Column1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E43" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{97E67440-64E5-475A-862A-DE53CD4198B3}" name="#" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2A18092F-2E40-4862-BED9-469CB0647BD6}" name="Naziv" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{71BCE944-C673-40E8-A62D-1576F5D0AEBB}" name="Kućište" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FC793558-D69D-4416-AA9A-A219877FD2A2}" name="Količina" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0912EF61-DC9F-4416-B786-74DDF1505FBD}" name="digikey/TME" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1410,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,158 +1396,140 @@
     <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1582,578 +1537,501 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>33</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>34</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>35</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>39</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="G36" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>35</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>40</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>41</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>42</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>39</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="1"/>
-      <c r="H38" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>35</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14">
-        <v>1</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="1"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>36</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14">
-        <v>4</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="1"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>43</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="1"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>44</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="1"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>42</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="1"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>43</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="1"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>44</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="9"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="9">
-        <v>2</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="9"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="G43" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H38:H45"/>
+  <mergeCells count="1">
+    <mergeCell ref="G36:G43"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1" xr:uid="{3BB63272-6E7C-4BFF-A6C9-0849E00B3848}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>